--- a/数据挖掘实战-英文数据 词频词云 情感分析/youtube/含有sanxingdui_post_detail.xlsx
+++ b/数据挖掘实战-英文数据 词频词云 情感分析/youtube/含有sanxingdui_post_detail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,1182 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>9hMwhB3iclc</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2022-06-13T11:00:04Z</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sanxingdui New Findings④ Bronze Standing Human Figure with Dress  | 三星堆新发现：铜着裙立人像</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>#archaeology #discovery #culture #sanxingdui #sichuan #china #civilization 
+Sanxingdui New Findings④: Bronze Standing Human Figure with Dress.
+Does SHE look like you?
+————————————————————
+𝐒𝐞𝐞𝐢𝐧𝐠 𝐈𝐬 𝐅𝐞𝐞𝐥𝐢𝐧𝐠
+𝐄𝐱𝐩𝐞𝐫𝐢𝐞𝐧𝐜𝐞 𝐂𝐡𝐢𝐧𝐚 𝐕𝐢𝐚 𝐒𝐢𝐜𝐡𝐮𝐚𝐧 𝐄𝐲𝐞𝐬
+Hi there! This is the Center's Youtube video channel. We're here to present to you all sides of Sichuan.
+//𝐖𝐇𝐎 𝐀𝐑𝐄 𝐖𝐄? 
+With the purpose of "experience China via Sichuan eyes," we are Sichuan International Communication Center, linking to various fields of international communication. We'll provide you with videos in Chinese and English about Sichuan culture, news, and natural scenes, which will help you to start knowing Sichuan and China better.
+//𝐌𝐎𝐑𝐄 𝐀𝐁𝐎𝐔𝐓 𝐔𝐒:
+Enter our website to know more ►► https://www.center.top/
+//𝐒𝐔𝐁𝐒𝐂𝐑𝐈𝐁𝐄:
+►►https://www.youtube.com/channel/UCjrBeowDB4fFLrwoAHDktqg/playlists
+We'll Keep You Updated! New Videos Every Day!
+//𝐅𝐎𝐋𝐋𝐎𝐖:
+Twitter ►►https://twitter.com/SichuanDaily
+Instagram ►►https://www.instagram.com/center.sicc/
+Facebook ►►https://www.facebook.com/Centertop-101641788931562/?ref=pages_you_manage
+Please Join Us! To know more about Chinese culture, landscapes, news, and Chinese people's real life, SUBSCRIBE to our channel to stay informed.
+We’ve got original videos and creative content every month, don’t forget to turn on the notification!
+//𝐁𝐔𝐒𝐈𝐍𝐄𝐒𝐒 𝐈𝐍𝐐𝐔𝐈𝐑𝐈𝐄𝐒:
+Please contact us ►►SICCChinaofficial@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>878</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>PT10S</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>#culture;#food;#travel;#life</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>sanxingdui finding bronze standing human figure dress center youtube video channel sichuan purpose experience china sichuan eye sichuan international communication center linking field international communication provide video chinese english sichuan culture news natural scene start knowing sichuan china enter website updated video day twitter instagram facebook join chinese culture landscape news chinese people real life subscribe channel stay informed original video creative content month don forget notification contact sicchinaofficial</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{'neg': 0.025, 'neu': 0.844, 'pos': 0.131, 'compound': 0.7906}</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0.7906</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pdaYJPpumVc</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2022-06-13T10:30:07Z</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sanxingdui New Findings③ Grid Shaped Vessel In the Shape of Turtle’s Back | 三星堆新发现：龟背形网格状器</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>#archaeology #discovery #culture #sanxingdui #sichuan #china #civilization 
+Sanxingdui New Findings③: Grid Shaped Vessel In the Shape of Turtle’s Back. 
+Take a guess, what was it used for?
+————————————————————
+𝐒𝐞𝐞𝐢𝐧𝐠 𝐈𝐬 𝐅𝐞𝐞𝐥𝐢𝐧𝐠
+𝐄𝐱𝐩𝐞𝐫𝐢𝐞𝐧𝐜𝐞 𝐂𝐡𝐢𝐧𝐚 𝐕𝐢𝐚 𝐒𝐢𝐜𝐡𝐮𝐚𝐧 𝐄𝐲𝐞𝐬
+Hi there! This is the Center's Youtube video channel. We're here to present to you all sides of Sichuan.
+//𝐖𝐇𝐎 𝐀𝐑𝐄 𝐖𝐄? 
+With the purpose of "experience China via Sichuan eyes," we are Sichuan International Communication Center, linking to various fields of international communication. We'll provide you with videos in Chinese and English about Sichuan culture, news, and natural scenes, which will help you to start knowing Sichuan and China better.
+//𝐌𝐎𝐑𝐄 𝐀𝐁𝐎𝐔𝐓 𝐔𝐒:
+Enter our website to know more ►► https://www.center.top/
+//𝐒𝐔𝐁𝐒𝐂𝐑𝐈𝐁𝐄:
+►►https://www.youtube.com/channel/UCjrBeowDB4fFLrwoAHDktqg/playlists
+We'll Keep You Updated! New Videos Every Day!
+//𝐅𝐎𝐋𝐋𝐎𝐖:
+Twitter ►►https://twitter.com/SichuanDaily
+Instagram ►►https://www.instagram.com/center.sicc/
+Facebook ►►https://www.facebook.com/Centertop-101641788931562/?ref=pages_you_manage
+Please Join Us! To know more about Chinese culture, landscapes, news, and Chinese people's real life, SUBSCRIBE to our channel to stay informed.
+We’ve got original videos and creative content every month, don’t forget to turn on the notification!
+//𝐁𝐔𝐒𝐈𝐍𝐄𝐒𝐒 𝐈𝐍𝐐𝐔𝐈𝐑𝐈𝐄𝐒:
+Please contact us ►►SICCChinaofficial@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>650</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT13S</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>#culture;#food;#travel;#life</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>sanxingdui finding grid shaped vessel shape turtle guess center youtube video channel sichuan purpose experience china sichuan eye sichuan international communication center linking field international communication provide video chinese english sichuan culture news natural scene start knowing sichuan china enter website updated video day twitter instagram facebook join chinese culture landscape news chinese people real life subscribe channel stay informed original video creative content month don forget notification contact sicchinaofficial</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>{'neg': 0.025, 'neu': 0.846, 'pos': 0.129, 'compound': 0.7906}</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0.7906</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VLN41p9m-pA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-06-13T09:30:04Z</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sanxingdui New Findings① Human Figure Holding A Zun Vessel on Head with Snake Body 三星堆新发现顶尊蛇身神人像</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#archaeology #discovery #culture #sanxingdui #sichuan #china #civilization 
+Sanxingdui New Findings①: Bronze Human Figure Holding A Zun Vessel on Head with Snake Body.
+Any deeper meaning in the symbols?
+————————————————————
+𝐒𝐞𝐞𝐢𝐧𝐠 𝐈𝐬 𝐅𝐞𝐞𝐥𝐢𝐧𝐠
+𝐄𝐱𝐩𝐞𝐫𝐢𝐞𝐧𝐜𝐞 𝐂𝐡𝐢𝐧𝐚 𝐕𝐢𝐚 𝐒𝐢𝐜𝐡𝐮𝐚𝐧 𝐄𝐲𝐞𝐬
+Hi there! This is the Center's Youtube video channel. We're here to present to you all sides of Sichuan.
+//𝐖𝐇𝐎 𝐀𝐑𝐄 𝐖𝐄? 
+With the purpose of "experience China via Sichuan eyes," we are Sichuan International Communication Center, linking to various fields of international communication. We'll provide you with videos in Chinese and English about Sichuan culture, news, and natural scenes, which will help you to start knowing Sichuan and China better.
+//𝐌𝐎𝐑𝐄 𝐀𝐁𝐎𝐔𝐓 𝐔𝐒:
+Enter our website to know more ►► https://www.center.top/
+//𝐒𝐔𝐁𝐒𝐂𝐑𝐈𝐁𝐄:
+►►https://www.youtube.com/channel/UCjrBeowDB4fFLrwoAHDktqg/playlists
+We'll Keep You Updated! New Videos Every Day!
+//𝐅𝐎𝐋𝐋𝐎𝐖:
+Twitter ►►https://twitter.com/SichuanDaily
+Instagram ►►https://www.instagram.com/center.sicc/
+Facebook ►►https://www.facebook.com/Centertop-101641788931562/?ref=pages_you_manage
+Please Join Us! To know more about Chinese culture, landscapes, news, and Chinese people's real life, SUBSCRIBE to our channel to stay informed.
+We’ve got original videos and creative content every month, don’t forget to turn on the notification!
+//𝐁𝐔𝐒𝐈𝐍𝐄𝐒𝐒 𝐈𝐍𝐐𝐔𝐈𝐑𝐈𝐄𝐒:
+Please contact us ►►SICCChinaofficial@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>371</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT11S</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>#culture;#food;#travel;#life</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>sanxingdui finding bronze human figure holding zun vessel head snake body deeper meaning symbol center youtube video channel sichuan purpose experience china sichuan eye sichuan international communication center linking field international communication provide video chinese english sichuan culture news natural scene start knowing sichuan china enter website updated video day twitter instagram facebook join chinese culture landscape news chinese people real life subscribe channel stay informed original video creative content month don forget notification contact sicchinaofficial</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{'neg': 0.023, 'neu': 0.857, 'pos': 0.12, 'compound': 0.7906}</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0.7906</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3tAmHgcgGoA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022-06-13T10:00:02Z</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sanxingdui New Findings② Bronze Altar ｜三星堆新发现：三星堆铜神坛</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>#discovery #archaeology #culture #china #sichuan #sanxingdui #newevents 
+Sanxingdui New #Findings②: Bronze Altar.
+————————————————————
+𝐒𝐞𝐞𝐢𝐧𝐠 𝐈𝐬 𝐅𝐞𝐞𝐥𝐢𝐧𝐠
+𝐄𝐱𝐩𝐞𝐫𝐢𝐞𝐧𝐜𝐞 𝐂𝐡𝐢𝐧𝐚 𝐕𝐢𝐚 𝐒𝐢𝐜𝐡𝐮𝐚𝐧 𝐄𝐲𝐞𝐬
+Hi there! This is the Center's Youtube video channel. We're here to present to you all sides of Sichuan.
+//𝐖𝐇𝐎 𝐀𝐑𝐄 𝐖𝐄? 
+With the purpose of "experience China via Sichuan eyes," we are Sichuan International Communication Center, linking to various fields of international communication. We'll provide you with videos in Chinese and English about Sichuan culture, news, and natural scenes, which will help you to start knowing Sichuan and China better.
+//𝐌𝐎𝐑𝐄 𝐀𝐁𝐎𝐔𝐓 𝐔𝐒:
+Enter our website to know more ►► https://www.center.top/
+//𝐒𝐔𝐁𝐒𝐂𝐑𝐈𝐁𝐄:
+►►https://www.youtube.com/channel/UCjrBeowDB4fFLrwoAHDktqg/playlists
+We'll Keep You Updated! New Videos Every Day!
+//𝐅𝐎𝐋𝐋𝐎𝐖:
+Twitter ►►https://twitter.com/SichuanDaily
+Instagram ►►https://www.instagram.com/center.sicc/
+Facebook ►►https://www.facebook.com/Centertop-101641788931562/?ref=pages_you_manage
+Please Join Us! To know more about Chinese culture, landscapes, news, and Chinese people's real life, SUBSCRIBE to our channel to stay informed.
+We’ve got original videos and creative content every month, don’t forget to turn on the notification!
+//𝐁𝐔𝐒𝐈𝐍𝐄𝐒𝐒 𝐈𝐍𝐐𝐔𝐈𝐑𝐈𝐄𝐒:
+Please contact us ►►SICCChinaofficial@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>242</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT13S</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>#culture;#food;#travel;#life</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>sanxingdui bronze altar center youtube video channel sichuan purpose experience china sichuan eye sichuan international communication center linking field international communication provide video chinese english sichuan culture news natural scene start knowing sichuan china enter website updated video day twitter instagram facebook join chinese culture landscape news chinese people real life subscribe channel stay informed original video creative content month don forget notification contact sicchinaofficial</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>{'neg': 0.026, 'neu': 0.836, 'pos': 0.138, 'compound': 0.7906}</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7906</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>l9ENeRYx6eQ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2022-05-16T09:49:57Z</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Name the new member of the Sanxingdui family! | 三星堆家族有新成员啦！快来帮它起名字！</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>#コダック #MyLittlePony #神奇寶貝 #Pokémon #ポケモン #MLP
+A new member of the Sanxingdui family! I won't tell you it is the #twilightsparkle and #Psyduck 3000 yrs ago. What do you think it looks like? Name it in the comments! 
+𝐒𝐞𝐞𝐢𝐧𝐠 𝐈𝐬 𝐅𝐞𝐞𝐥𝐢𝐧𝐠
+𝐄𝐱𝐩𝐞𝐫𝐢𝐞𝐧𝐜𝐞 𝐂𝐡𝐢𝐧𝐚 𝐕𝐢𝐚 𝐒𝐢𝐜𝐡𝐮𝐚𝐧 𝐄𝐲𝐞𝐬
+Hi there! This is the Center's Youtube video channel. We're here to present to you all sides of Sichuan.
+//𝐖𝐇𝐎 𝐀𝐑𝐄 𝐖𝐄? 
+With the purpose of "experience China via Sichuan eyes," we are Sichuan International Communication Center, linking to various fields of international communication. We'll provide you with videos in Chinese and English about Sichuan culture, news, and natural scenes, which will help you to start knowing Sichuan and China better.
+//𝐌𝐎𝐑𝐄 𝐀𝐁𝐎𝐔𝐓 𝐔𝐒:
+Enter our website to know more | https://www.center.top/
+//𝐒𝐔𝐁𝐒𝐂𝐑𝐈𝐁𝐄:
+https://www.youtube.com/channel/UCjrBeowDB4fFLrwoAHDktqg/playlists
+We'll Keep You Updated! New Videos Every Day!
+//𝐅𝐎𝐋𝐋𝐎𝐖:
+Twitter | https://twitter.com/SichuanDaily
+Instagram | https://www.instagram.com/center.sicc/
+Facebook | https://www.facebook.com/Centertop-101641788931562/?ref=pages_you_manage
+Please Join Us! To know more about Chinese culture, landscapes, news, and Chinese people's real life, SUBSCRIBE to our channel to stay informed.
+We’ve got original videos and creative content every month, don’t forget to turn on the notification!
+//𝐁𝐔𝐒𝐈𝐍𝐄𝐒𝐒 𝐈𝐍𝐐𝐔𝐈𝐑𝐈𝐄𝐒:
+Please contact us at SICCChinaofficial@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>91</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT18S</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>sanxingdui family won yr ago comment center youtube video channel sichuan purpose experience china sichuan eye sichuan international communication center linking field international communication provide video chinese english sichuan culture news natural scene start knowing sichuan china enter website updated video day twitter instagram facebook join chinese culture landscape news chinese people real life subscribe channel stay informed original video creative content month don forget notification contact sicchinaofficial</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>{'neg': 0.025, 'neu': 0.8, 'pos': 0.175, 'compound': 0.8934}</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8934</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2CoaEHm5Euc</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2022-03-28T01:51:53Z</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>在三星堆看“三星伴月”，带你穿越古蜀灿烂文化！Miraculous astronomical Phen. in Sanxingdui : Three Stars alongside the moon!</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>#China’s southwestern archaeological site #Sanxingdui, also known as Three Star Mound, is named after its territorial characteristics that three sand dunes and a moon-shape mesa consist of the entirety that was historically recorded as “Three Stars alongside the moon.” 
+Today, viewers are bound for a feast of eyes, because people from the earth could observe the astronomical phenomenon that bear the resemblance to the literal meaning of Sanxingdui, which means a perfect ligature of Venus, Mars and Saturn appearing against the waning moon!</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT8H24M46S</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sanxingdui;China</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>southwestern archaeological site star mound named territorial characteristic sand dune moon shape mesa consist entirety historically recorded star alongside moon viewer bound feast eye people earth observe astronomical phenomenon bear resemblance literal meaning sanxingdui perfect ligature venus mar saturn appearing waning moon</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.917, 'pos': 0.083, 'compound': 0.5719}</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>iibPX_jdt7M</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2022-02-01T19:25:31Z</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Visit how to restore national treasure cultural relics of Sanxingdui on the Spring Festival</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Last night, the world's #largest bronze mask excavated from pit 3 at #Sanxingdui took to the stage of the Spring Festival Gala to send New Year wishes to everyone. 
+To commemorate the centenary of the birth of modern Chinese archaeology, the newly restored bronze kneeling statues with twisted heads and other cultural relics were also officially opened to the public at the Sanxingdui Museum.
+Today, let's go to the Conservation and Restoration Exhibition Centre of the Sanxingdui Museum and listen to a heritage worker talk about his first day of the New Year.</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>46</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT40M58S</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>#2022;#China;newyear</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>night bronze mask excavated pit stage spring festival gala send wish commemorate centenary birth modern chinese archaeology newly restored bronze kneeling statue twisted head cultural relic officially public sanxingdui museum conservation restoration exhibition centre sanxingdui museum listen heritage worker talk day</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.821, 'pos': 0.179, 'compound': 0.8074}</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8074</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NQBLObwm3yc</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022-02-11T10:54:04Z</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>台湾记者直击！三星堆千年考古罕见开放！|Taiwan reporter explores the secrets of Sanxingdui</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>This video is a contribution from ETtoday. A Taiwan reporter was lucky enough to visit the archaeological site of Sanxingdui, which is not normally open to the public. Let’s discover the secrets of Sanxingdui. Click the link to submit your work:center.top #StoneOfOtherMountains</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>37</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3M43S</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>video contribution ettoday taiwan reporter lucky visit archaeological site sanxingdui public discover secret sanxingdui click link submit center top</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.787, 'pos': 0.213, 'compound': 0.5574}</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0.5574</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BVE4M9EU3wY</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-06-10T22:22:12Z</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Make everything④How to make a Sanxingdui Bronze Mask with clay | 徐氏泥彩塑：怎么用泥土做一个三星堆青铜大面具？</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Xu's clay colored #sculpture is a national intangible cultural heritage in China. It is a kind of Folk Clay sculpture art with local characteristics, which is mainly spread in Daying County, Sichuan Province.
+Follow our live streaming and see how the craftsman make a Sanxingdui Bronze Mask with clay!
+#diy #china</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>36</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1H15M11S</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>sculpture;crafts</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>xu clay colored national intangible cultural heritage china folk clay sculpture art local characteristic spread daying county sichuan province follow live streaming craftsman sanxingdui bronze mask clay</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 1.0, 'pos': 0.0, 'compound': 0.0}</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>lSEkL_bleJg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022-06-01T07:51:08Z</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Be creative! Let's colour for Sanxingdui! 让我们一起为三星堆上色吧！</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>#ChildrensDay #art #creative
+Happy #ChildrensDay! Do you know what kind of creation will be done to Sanxingdui cultural relics when children with rich imagination pick up their brushes? Bronze sacred tree with flame, a golden mask that glows... Try it out and create a unique Sanxingdui! #ColourForSanxingdui
+𝐒𝐞𝐞𝐢𝐧𝐠 𝐈𝐬 𝐅𝐞𝐞𝐥𝐢𝐧𝐠
+𝐄𝐱𝐩𝐞𝐫𝐢𝐞𝐧𝐜𝐞 𝐂𝐡𝐢𝐧𝐚 𝐕𝐢𝐚 𝐒𝐢𝐜𝐡𝐮𝐚𝐧 𝐄𝐲𝐞𝐬
+Hi there! This is the Center's Youtube video channel. We're here to present to you all sides of Sichuan.
+//𝐖𝐇𝐎 𝐀𝐑𝐄 𝐖𝐄? 
+With the purpose of "experience China via Sichuan eyes," we are Sichuan International Communication Center, linking to various fields of international communication. We'll provide you with videos in Chinese and English about Sichuan culture, news, and natural scenes, which will help you to start knowing Sichuan and China better.
+//𝐌𝐎𝐑𝐄 𝐀𝐁𝐎𝐔𝐓 𝐔𝐒:
+Enter our website to know more ►► https://www.center.top/
+//𝐒𝐔𝐁𝐒𝐂𝐑𝐈𝐁𝐄:
+►►https://www.youtube.com/channel/UCjrBeowDB4fFLrwoAHDktqg/playlists
+We'll Keep You Updated! New Videos Every Day!
+//𝐅𝐎𝐋𝐋𝐎𝐖:
+Twitter ►►https://twitter.com/SichuanDaily
+Instagram ►►https://www.instagram.com/center.sicc/
+Facebook ►►https://www.facebook.com/Centertop-101641788931562/?ref=pages_you_manage
+Please Join Us! To know more about Chinese culture, landscapes, news, and Chinese people's real life, SUBSCRIBE to our channel to stay informed.
+We’ve got original videos and creative content every month, don’t forget to turn on the notification!
+//𝐁𝐔𝐒𝐈𝐍𝐄𝐒𝐒 𝐈𝐍𝐐𝐔𝐈𝐑𝐈𝐄𝐒:
+Please contact us ►►SICCChinaofficial@gmail.com</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT54S</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>#culture;#food;#travel;#life</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>happy creation sanxingdui cultural relic child rich imagination pick brush bronze sacred tree flame golden mask glow create unique sanxingdui center youtube video channel sichuan purpose experience china sichuan eye sichuan international communication center linking field international communication provide video chinese english sichuan culture news natural scene start knowing sichuan china enter website updated video day twitter instagram facebook join chinese culture landscape news chinese people real life subscribe channel stay informed original video creative content month don forget notification contact sicchinaofficial</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>{'neg': 0.02, 'neu': 0.758, 'pos': 0.222, 'compound': 0.9552}</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9552</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>fGBYzbNZuMw</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022-02-11T14:49:24Z</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>台湾记者直击！三星堆千年考古罕见开放！|Taiwan reporter explores the secrets of Sanxingdui</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>This is a piece of work by ETtoday. A Taiwan reporter luckily visited the archaeological site of Sanxingdui, which is not normally open to the public. Let’s discover the secrets of Sanxingdui. Click the link to submit your work: center.top 
+#StoneOfOtherMountains</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3M43S</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>piece ettoday taiwan reporter luckily visited archaeological site sanxingdui public discover secret sanxingdui click link submit center top</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 0.758, 'pos': 0.242, 'compound': 0.6249}</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>0.6249</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>G57dqaRT_hE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2022-04-21T08:00:05Z</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>跨越千年的守护。珍稀动物找三星堆摆龙门阵会聊些啥？|Want to know what Rare Animals and Sanxingdui artifacts are talking about?</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>April 22 is World Earth Day. What happens when rare animals meet the Sanxingdui cultural relics? Let's make effort to protect our beautiful blue planet. #WorldEarthDay #EarthDay2022 #rareanimals  #FindFantasticFriendsChallenge
+𝐒𝐞𝐞𝐢𝐧𝐠 𝐈𝐬 𝐅𝐞𝐞𝐥𝐢𝐧𝐠
+𝐄𝐱𝐩𝐞𝐫𝐢𝐞𝐧𝐜𝐞 𝐂𝐡𝐢𝐧𝐚 𝐕𝐢𝐚 𝐒𝐢𝐜𝐡𝐮𝐚𝐧 𝐄𝐲𝐞𝐬
+Hi there! This is the Center's Youtube video channel. We're here to present to you all sides of Sichuan.
+//𝐖𝐇𝐎 𝐀𝐑𝐄 𝐖𝐄? 
+With the purpose of "experience China via Sichuan eyes," we are Sichuan International Communication Center, linking to various fields of international communication. We'll provide you with videos in Chinese and English about Sichuan culture, news, and natural scenes, which will help you to start knowing Sichuan and China better.
+//𝐌𝐎𝐑𝐄 𝐀𝐁𝐎𝐔𝐓 𝐔𝐒:
+Enter our website to know more | https://www.center.top/
+//𝐒𝐔𝐁𝐒𝐂𝐑𝐈𝐁𝐄:
+https://www.youtube.com/channel/UCjrBeowDB4fFLrwoAHDktqg/playlists
+We'll Keep You Updated! New Videos Every Day!
+//𝐅𝐎𝐋𝐋𝐎𝐖:
+Twitter | https://twitter.com/SichuanDaily
+Instagram | https://www.instagram.com/center.sicc/
+Facebook | https://www.facebook.com/Centertop-101641788931562/?ref=pages_you_manage
+Please Join Us! To know more about Chinese culture, landscapes, news, and Chinese people's real life, SUBSCRIBE to our channel to stay informed.
+We’ve got original videos and creative content every month, don’t forget to turn on the notification!
+//𝐁𝐔𝐒𝐈𝐍𝐄𝐒𝐒 𝐈𝐍𝐐𝐔𝐈𝐑𝐈𝐄𝐒:
+Please contact us at SICCChinaofficial@gmail.com</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2M16S</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>april earth day rare animal meet sanxingdui cultural relic effort protect beautiful blue planet center youtube video channel sichuan purpose experience china sichuan eye sichuan international communication center linking field international communication provide video chinese english sichuan culture news natural scene start knowing sichuan china enter website updated video day twitter instagram facebook join chinese culture landscape news chinese people real life subscribe channel stay informed original video creative content month don forget notification contact sicchinaofficial</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>{'neg': 0.022, 'neu': 0.79, 'pos': 0.188, 'compound': 0.926}</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>I3_7jO5O1Tw</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ChinaYummy</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-09-09T03:56:01Z</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Off the top of your head! the old-school Chinese advertising of Sanxingdui is coming! 再看亿遍……三星堆土味宣传片</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>the old-school Chinese advertising of Sanxingdui is coming!</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2M4S</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Center. Yummy</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>school chinese advertising sanxingdui coming</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>{'neg': 0.0, 'neu': 1.0, 'pos': 0.0, 'compound': 0.0}</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
